--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3942862.643429938</v>
+        <v>4048709.870444611</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498524</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7155592.926047232</v>
+        <v>7135141.641162918</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152.4213983071993</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>201.747221965727</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>18.77568304716637</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -877,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>141.0526494037119</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>104.4462895913691</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>339.0216620013216</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>108.2927969592361</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>11.48352133603112</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>302.4403985916114</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>101.6108189156333</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1147,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>85.45564210299004</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>13.21455103355464</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.154082144413</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>58.21786903648938</v>
+        <v>103.1226065694015</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,19 +1612,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.295034370327</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>112.5284434523311</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1853,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>20.89983420622057</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>133.1319933510085</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>246.9480135426057</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>68.64373283592688</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>1.294096136280033</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898984</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>36.2249434387023</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>26.07046444232026</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3554,10 +3556,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>176.7621441121416</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972046</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833548</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T46" t="n">
-        <v>178.2892930985862</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
   </sheetData>
@@ -4304,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>373.9157775549434</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C2" t="n">
-        <v>373.9157775549434</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>373.9157775549434</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>373.9157775549434</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>366.9702768057399</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4358,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218655</v>
+        <v>2025.109406839797</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.8767859460538</v>
+        <v>1634.970074863985</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>114.543262603435</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>299.264883884485</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159568</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751768</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472122</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
         <v>2239.046898434119</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,52 +4488,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1514.8973771788</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>1225.779039682638</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426272</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W4" t="n">
-        <v>427.9752356025142</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X4" t="n">
-        <v>199.9856847044969</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y4" t="n">
-        <v>199.9856847044969</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1514.348043559526</v>
+        <v>1505.18439714251</v>
       </c>
       <c r="C5" t="n">
-        <v>1514.348043559526</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559526</v>
+        <v>1610.685699760054</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>299.2648838844851</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>593.9684409159568</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>957.2304598751767</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>907.8932097569428</v>
+        <v>486.376530804052</v>
       </c>
       <c r="C7" t="n">
-        <v>738.957026829036</v>
+        <v>317.4403478761451</v>
       </c>
       <c r="D7" t="n">
-        <v>588.8403874167002</v>
+        <v>317.4403478761451</v>
       </c>
       <c r="E7" t="n">
-        <v>440.9272938343071</v>
+        <v>317.4403478761451</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>317.4403478761451</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.67533979849</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>1356.67533979849</v>
+        <v>896.0145465323091</v>
       </c>
       <c r="W7" t="n">
-        <v>1356.67533979849</v>
+        <v>896.0145465323091</v>
       </c>
       <c r="X7" t="n">
-        <v>1128.685788900473</v>
+        <v>668.0249956342917</v>
       </c>
       <c r="Y7" t="n">
-        <v>907.8932097569428</v>
+        <v>668.0249956342917</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1274.539111149739</v>
+        <v>1182.87310169792</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.539111149739</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189673</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213861</v>
+        <v>1488.368453810659</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>396.7094242895083</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C10" t="n">
-        <v>227.7732413616014</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D10" t="n">
-        <v>227.7732413616014</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E10" t="n">
-        <v>79.86014777920829</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F10" t="n">
-        <v>79.86014777920829</v>
+        <v>392.1596617821642</v>
       </c>
       <c r="G10" t="n">
-        <v>79.86014777920829</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>79.86014777920829</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>617.5020034330385</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y10" t="n">
-        <v>396.7094242895083</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.5840502527391</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239598</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654462</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891998</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446605</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.708435085168</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C13" t="n">
-        <v>696.708435085168</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832664</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855605</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199803</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993916</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956955</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058938</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154078</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,37 +5293,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,34 +5503,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>2149.810879820877</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
-        <v>2149.810879820877</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.8178837532264</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5704,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1956.350136867861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1701.665648661974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1412.248478625014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1184.258927726996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>963.4663485834661</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2231.588527385791</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>2726.91413360155</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>3324.292621228102</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>3715.300272664238</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>4267.210002903525</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3025.687952571559</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C22" t="n">
-        <v>3025.687952571559</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D22" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3428.128996545328</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3428.128996545328</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3207.336417401798</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>2876.560776129205</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>3473.939263755757</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N24" t="n">
-        <v>4101.537227310363</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O24" t="n">
-        <v>4653.44695754965</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6127,19 +6129,19 @@
         <v>701.0383482155643</v>
       </c>
       <c r="D25" t="n">
-        <v>550.9217088032285</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E25" t="n">
-        <v>550.9217088032285</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>404.0317613053181</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>236.8356620201981</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>95.12383086239615</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6206,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6233,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6309,22 +6311,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.221377756499</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4623.787448650995</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>4334.712221995193</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>4262.384993990607</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953646</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6452,13 +6454,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6467,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6494,10 +6496,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852888</v>
@@ -6546,19 +6548,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084666</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>3210.485548300425</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>3278.063798229818</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>3905.661761784424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>4457.571492023711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2978.493192213312</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>2834.086956247061</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>2708.500263796382</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>2585.117117175645</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>2462.757116639391</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2320.090964315927</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2202.909080119781</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2249.630143176794</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2535.361206719453</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>2949.801601912512</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3395.853105660666</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3837.304778337793</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4230.875860063898</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4547.593116654575</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4648.317395612653</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4489.992508229214</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4294.920990213812</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>4030.375710519666</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>3800.221169275435</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W34" t="n">
-        <v>3535.33394620013</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>3331.874342263769</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>3135.611710081896</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6917,31 +6919,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6962,22 +6964,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>2223.769289033212</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115002</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7174,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2978.493192213311</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>2834.086956247061</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D40" t="n">
-        <v>2708.500263796381</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E40" t="n">
-        <v>2585.117117175645</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F40" t="n">
-        <v>2462.75711663939</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G40" t="n">
-        <v>2320.090964315927</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>2202.909080119781</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2249.630143176794</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2535.361206719452</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>2949.801601912512</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3395.853105660666</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3837.304778337793</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4230.875860063898</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4547.593116654575</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4648.317395612652</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4489.992508229213</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>4294.92099021381</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>4030.375710519664</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>3800.221169275434</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>3535.33394620013</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>3331.874342263769</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>3135.611710081895</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7490,28 @@
         <v>2233.355914590558</v>
       </c>
       <c r="J42" t="n">
-        <v>2233.355914590558</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K42" t="n">
-        <v>2233.355914590558</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L42" t="n">
-        <v>2728.681520806317</v>
+        <v>3212.252935505193</v>
       </c>
       <c r="M42" t="n">
-        <v>3326.060008432869</v>
+        <v>3809.631423131745</v>
       </c>
       <c r="N42" t="n">
-        <v>3482.038612289356</v>
+        <v>4437.229386686352</v>
       </c>
       <c r="O42" t="n">
-        <v>4033.948342528643</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="R42" t="n">
         <v>4690.833152398593</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954147</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7640,28 +7642,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400688</v>
       </c>
       <c r="C46" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121618</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998259</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998259</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998259</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998259</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T46" t="n">
-        <v>2016.97235043849</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U46" t="n">
-        <v>1727.897123782688</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V46" t="n">
-        <v>1473.212635576801</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W46" t="n">
-        <v>1183.79546553984</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X46" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138389</v>
       </c>
       <c r="Y46" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703087</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9556134883066889</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.9556134883069376</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>54.95314511566539</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>90.39760398172297</v>
+        <v>45.49286644881082</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>68.49784254931346</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>265.2846401830236</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>46.69998683092876</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>39.57498479398529</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>79.97174018228547</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>79.9717401822855</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>142.4141550350972</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>260.4525338942707</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25837,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>40.64330621514665</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>40.32043864788852</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>39.11615722870204</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>630230.9679796454</v>
+        <v>630230.9679796455</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>623100.6549783604</v>
+        <v>630230.9679796455</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>623100.6549783604</v>
+        <v>630230.9679796454</v>
       </c>
     </row>
     <row r="5">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>612679.2773476525</v>
+        <v>612679.2773476524</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>623100.6549783604</v>
+        <v>612679.2773476524</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>623100.6549783604</v>
+        <v>612679.2773476525</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>623100.6549783604</v>
+        <v>612679.2773476524</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>623100.6549783604</v>
+        <v>612679.2773476524</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>623100.6549783604</v>
+        <v>612679.2773476525</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642835</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.7698642833</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.7698642832</v>
-      </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="G2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="F2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="G2" t="n">
-        <v>807146.599690006</v>
-      </c>
       <c r="H2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="I2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="J2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="K2" t="n">
-        <v>821041.7698642848</v>
-      </c>
       <c r="L2" t="n">
-        <v>821041.7698642837</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642833</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642848</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642835</v>
+        <v>807146.599690006</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900061</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121056</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,19 +26392,19 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>68537.81069968626</v>
+        <v>6.171571190602013e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551206</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.620387699105777e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>134318.0002618638</v>
+      </c>
+      <c r="C4" t="n">
         <v>134318.0002618637</v>
       </c>
-      <c r="C4" t="n">
-        <v>87304.34719808327</v>
-      </c>
       <c r="D4" t="n">
-        <v>87304.3471980833</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731919</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731943</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731965</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731963</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731973</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>16108.17168982545</v>
+        <v>8117.312426732023</v>
       </c>
       <c r="L4" t="n">
-        <v>16108.17168982543</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>16108.17168982546</v>
+        <v>8117.312426731926</v>
       </c>
       <c r="N4" t="n">
-        <v>16108.17168982546</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.17168982545</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731924</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-520965.786413345</v>
+        <v>-520965.7864133444</v>
       </c>
       <c r="C6" t="n">
-        <v>422364.7404927009</v>
+        <v>593785.9971625749</v>
       </c>
       <c r="D6" t="n">
-        <v>625803.4821048066</v>
+        <v>593785.9971625749</v>
       </c>
       <c r="E6" t="n">
-        <v>372494.2956320117</v>
+        <v>190421.3158148213</v>
       </c>
       <c r="F6" t="n">
         <v>697906.7574393671</v>
       </c>
       <c r="G6" t="n">
+        <v>697906.7574393674</v>
+      </c>
+      <c r="H6" t="n">
         <v>697906.7574393672</v>
-      </c>
-      <c r="H6" t="n">
-        <v>697906.7574393671</v>
       </c>
       <c r="I6" t="n">
         <v>697906.7574393672</v>
       </c>
       <c r="J6" t="n">
-        <v>530301.5796293844</v>
+        <v>530301.5796293846</v>
       </c>
       <c r="K6" t="n">
-        <v>633231.6716208577</v>
+        <v>697906.7574393668</v>
       </c>
       <c r="L6" t="n">
-        <v>701769.4823205429</v>
+        <v>697906.7574393675</v>
       </c>
       <c r="M6" t="n">
-        <v>616714.4543850303</v>
+        <v>565299.4637104404</v>
       </c>
       <c r="N6" t="n">
-        <v>701769.482320544</v>
+        <v>697906.7574393672</v>
       </c>
       <c r="O6" t="n">
-        <v>701769.4823205427</v>
+        <v>697906.7574393665</v>
       </c>
       <c r="P6" t="n">
-        <v>697906.7574393675</v>
+        <v>697906.7574393676</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203974</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,16 +26792,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203974</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757587</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27012,13 +27014,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>7.714463988252517e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27258,13 +27260,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>230.3124433562812</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>167.983878712742</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,7 +27554,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>201.9730129500456</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>145.4703489328791</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>278.2875520721115</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>15.66137961936136</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>37.12825106369513</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>154.8230787087731</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>80.29344307186915</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>253.0722227050496</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>80.85095794181414</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>83.13786937628345</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29509,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>-1.529358650302692e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>-1.529358650302692e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>-1.529358650302692e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>-1.529358650302692e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-1.529358650302692e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>-1.529358650302692e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>-1.529358650302692e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>-1.529358650302692e-13</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>-1.529358650302692e-13</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-1.529358650302692e-13</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>-1.529358650302692e-13</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>-1.529358650302692e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>-1.529358650302692e-13</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>-1.529358650302692e-13</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>-1.529358650302692e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>-1.529358650302692e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>-1.529358650302692e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>-1.529358650302692e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>-1.529358650302692e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>-1.529358650302692e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>-1.529358650302692e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>-1.529358650302692e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>-1.529358650302692e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>-1.529358650302692e-13</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>253.1045048722846</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N15" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,10 +32311,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>504.288299623204</v>
+        <v>202.2352659288688</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32488,7 +32490,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32549,10 +32551,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>526.2989357561987</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32795,7 +32797,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>134.72848811719</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>353.2560498238277</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33029,10 +33031,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33043,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>400.8433522134843</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,10 +33268,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>637.8521160493917</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33500,13 +33502,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M33" t="n">
-        <v>210.394892436556</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,10 +33517,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33661,7 +33663,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33731,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33968,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O39" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N42" t="n">
-        <v>288.8958573929167</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779069</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>568.8264345569168</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.93583437922414</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>187.5431097317917</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>304.6326742391977</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>114.5501250924104</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N15" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>370.3138922088737</v>
+        <v>68.26085851453861</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36136,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>394.9572236728654</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0.754080702859717</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>213.2742757378062</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36677,10 +36679,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36691,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>266.868944799154</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>499.2977362695175</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,13 +37150,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M33" t="n">
-        <v>68.26085851453769</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,10 +37165,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986646</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O39" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N42" t="n">
-        <v>157.5541453095834</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334625</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>430.2720547770426</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629532</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4048709.870444611</v>
+        <v>4044572.71319446</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7135141.641162918</v>
+        <v>7135141.641162917</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>65.55974623445044</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -715,19 +715,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>201.747221965727</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.52272637982375</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>18.77568304716637</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104.4462895913691</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>46.93693955568628</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>11.48352133603112</v>
+        <v>164.2127700397092</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>302.4403985916114</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>286.5888679426047</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>85.45564210299004</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>103.1226065694015</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534142</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>112.5284434523311</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>133.1319933510085</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>68.64373283592688</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>24.83266606353065</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>201.8437228691386</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>94.30373791808189</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>36.2249434387023</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,16 +3246,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>26.07046444232026</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>176.7621441121416</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>99.97427419833548</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.370234799863</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>549.053600981453</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>190.7879023747025</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>190.7879023747025</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>183.842401625499</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.89447953245</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>2025.109406839797</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y2" t="n">
-        <v>1634.970074863985</v>
+        <v>918.0161179218646</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380231</v>
+        <v>458.7060632252735</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694948</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.24678656800311</v>
+        <v>932.6070201144361</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800311</v>
+        <v>763.6708371865292</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>613.5541977741934</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>465.6411041918003</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>318.7511566938899</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>150.7646920021685</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>150.7646920021685</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4515,25 +4515,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1514.8973771788</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1225.779039682638</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>971.0945514767509</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W4" t="n">
-        <v>681.6773814397902</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X4" t="n">
-        <v>453.6878305417729</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="Y4" t="n">
-        <v>232.8952513982428</v>
+        <v>1114.255484944676</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1505.18439714251</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="C5" t="n">
-        <v>1136.221880202098</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="D5" t="n">
-        <v>777.9561815953474</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>69.85663355251361</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>62.91113280331014</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816075</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230815</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740838</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764995</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723848</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2514.928278343905</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2514.928278343905</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2261.347217608085</v>
       </c>
       <c r="V5" t="n">
-        <v>2353.59368700598</v>
+        <v>1930.284330264514</v>
       </c>
       <c r="W5" t="n">
-        <v>2000.825031735866</v>
+        <v>1577.5156749944</v>
       </c>
       <c r="X5" t="n">
-        <v>2000.825031735866</v>
+        <v>1204.04991673332</v>
       </c>
       <c r="Y5" t="n">
-        <v>1610.685699760054</v>
+        <v>813.9105847575083</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>299.2648838844851</v>
+        <v>423.1489515180658</v>
       </c>
       <c r="L6" t="n">
-        <v>593.9684409159568</v>
+        <v>717.8525085495373</v>
       </c>
       <c r="M6" t="n">
-        <v>957.2304598751767</v>
+        <v>1081.114527508757</v>
       </c>
       <c r="N6" t="n">
-        <v>1344.515588472122</v>
+        <v>1468.399656105702</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>1800.470091281863</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>486.376530804052</v>
+        <v>682.7064461033921</v>
       </c>
       <c r="C7" t="n">
-        <v>317.4403478761451</v>
+        <v>513.7702631754852</v>
       </c>
       <c r="D7" t="n">
-        <v>317.4403478761451</v>
+        <v>513.7702631754852</v>
       </c>
       <c r="E7" t="n">
-        <v>317.4403478761451</v>
+        <v>365.8571695930921</v>
       </c>
       <c r="F7" t="n">
-        <v>317.4403478761451</v>
+        <v>365.8571695930921</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312189</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1150.699034738196</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>896.0145465323091</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>896.0145465323091</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X7" t="n">
-        <v>668.0249956342917</v>
+        <v>864.3549109336318</v>
       </c>
       <c r="Y7" t="n">
-        <v>668.0249956342917</v>
+        <v>864.3549109336318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1182.87310169792</v>
+        <v>728.3028554854554</v>
       </c>
       <c r="C8" t="n">
-        <v>813.9105847575083</v>
+        <v>359.3403385450437</v>
       </c>
       <c r="D8" t="n">
-        <v>455.6448861507579</v>
+        <v>69.85663355251361</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>69.85663355251361</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>62.91113280331014</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362816</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723848</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2231.276441056583</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>1878.507785786469</v>
       </c>
       <c r="X8" t="n">
-        <v>1878.507785786471</v>
+        <v>1505.042027525389</v>
       </c>
       <c r="Y8" t="n">
-        <v>1488.368453810659</v>
+        <v>1114.902695549577</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>684.9695361605186</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>1117.223096727986</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1006.01552520271</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>837.0793422748035</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>686.9627028624677</v>
+        <v>346.0498276483065</v>
       </c>
       <c r="E10" t="n">
-        <v>539.0496092800746</v>
+        <v>198.1367340659134</v>
       </c>
       <c r="F10" t="n">
-        <v>392.1596617821642</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074497</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>1408.45656917648</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>1187.66399003295</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5023,43 +5023,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5120,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6918836311989</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C13" t="n">
-        <v>801.6918836311989</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614387</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5284,13 +5284,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2333.297989183966</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2333.297989183966</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5521,16 +5521,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5652,22 +5652,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>781.8178837532264</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5955,7 +5955,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>701.0383482155643</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,22 +6208,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6241,19 +6241,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C28" t="n">
-        <v>555.8158034133954</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6420,16 +6420,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>813.3497091711303</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6502,13 +6502,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="35">
@@ -6922,16 +6922,16 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6943,16 +6943,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,22 +6964,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7080,13 +7080,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>740.5562989961525</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>149.8982754122182</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111709</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>3212.252935505193</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>3809.631423131745</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>4437.229386686352</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2018.514925172274</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7727,19 +7727,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121618</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998259</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998259</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998259</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>194.8007783998259</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611856</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703087</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3273467878355</v>
+        <v>162.0073097921336</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9556134883069376</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>168.7434581780656</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.9393975111066</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>54.95314511566539</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154994</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>45.49286644881082</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>46.45968844823039</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>68.49784254931346</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.69998683092876</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>79.97174018228547</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>142.4141550350972</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>50.29392045468941</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>45.99097492814199</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>260.4525338942707</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>180.5487903941886</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>63.36835372228749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>40.64330621514665</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>40.32043864788852</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856568</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>630230.9679796454</v>
+        <v>630230.9679796455</v>
       </c>
     </row>
     <row r="5">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>612679.2773476525</v>
+        <v>612679.2773476524</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>612679.2773476525</v>
+        <v>612679.2773476524</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642833</v>
@@ -26328,34 +26328,34 @@
         <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="J2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="L2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="O2" t="n">
-        <v>807146.599690006</v>
-      </c>
       <c r="P2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245464</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>6.171571190602013e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.620387699105777e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26444,13 +26444,13 @@
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426732023</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731926</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
@@ -26459,7 +26459,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731924</v>
+        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984467</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984467</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-520965.7864133444</v>
+        <v>-520965.7864133446</v>
       </c>
       <c r="C6" t="n">
-        <v>593785.9971625749</v>
+        <v>593785.9971625751</v>
       </c>
       <c r="D6" t="n">
-        <v>593785.9971625749</v>
+        <v>593785.9971625748</v>
       </c>
       <c r="E6" t="n">
-        <v>190421.3158148213</v>
+        <v>190073.9365604638</v>
       </c>
       <c r="F6" t="n">
-        <v>697906.7574393671</v>
+        <v>697559.3781850104</v>
       </c>
       <c r="G6" t="n">
-        <v>697906.7574393674</v>
+        <v>697559.3781850102</v>
       </c>
       <c r="H6" t="n">
-        <v>697906.7574393672</v>
+        <v>697559.3781850102</v>
       </c>
       <c r="I6" t="n">
-        <v>697906.7574393672</v>
+        <v>697559.3781850102</v>
       </c>
       <c r="J6" t="n">
-        <v>530301.5796293846</v>
+        <v>529954.2003750276</v>
       </c>
       <c r="K6" t="n">
-        <v>697906.7574393668</v>
+        <v>697559.3781850103</v>
       </c>
       <c r="L6" t="n">
-        <v>697906.7574393675</v>
+        <v>697559.3781850103</v>
       </c>
       <c r="M6" t="n">
-        <v>565299.4637104404</v>
+        <v>564952.0844560835</v>
       </c>
       <c r="N6" t="n">
-        <v>697906.7574393672</v>
+        <v>697559.37818501</v>
       </c>
       <c r="O6" t="n">
-        <v>697906.7574393665</v>
+        <v>697559.3781850103</v>
       </c>
       <c r="P6" t="n">
-        <v>697906.7574393676</v>
+        <v>697559.3781850103</v>
       </c>
     </row>
   </sheetData>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175389</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000384</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000384</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241351</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.12345599961</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.12345599961</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.12345599961</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>345.9879565385036</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>167.983878712742</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>6.273868824076828</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>201.9730129500456</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>278.2875520721115</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>76.51527584310813</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>154.8230787087731</v>
+        <v>2.093830005094958</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80.29344307186915</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>68.09417367807822</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>80.85095794181414</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28070,10 +28070,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1.529358650302692e-13</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.529358650302692e-13</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.529358650302692e-13</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.529358650302692e-13</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.529358650302692e-13</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.529358650302692e-13</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-1.529358650302692e-13</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-1.529358650302692e-13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-1.529358650302692e-13</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>-1.529358650302692e-13</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>-1.529358650302692e-13</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>-1.529358650302692e-13</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>-1.529358650302692e-13</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>-1.529358650302692e-13</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>-1.529358650302692e-13</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>-1.529358650302692e-13</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>-1.529358650302692e-13</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>-1.529358650302692e-13</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>-1.529358650302692e-13</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>-1.529358650302692e-13</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>-1.529358650302692e-13</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>-1.529358650302692e-13</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>-1.529358650302692e-13</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>-1.529358650302692e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R5" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,34 +31357,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31393,10 +31393,10 @@
         <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675763</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730002</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166592</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190643</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.501508014705</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177242</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040586</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335769</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31688,34 +31688,34 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069559</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024982</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,28 +32077,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,19 +32323,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>202.2352659288688</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32490,10 +32490,10 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O21" t="n">
-        <v>164.9290651940687</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,7 +32575,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,31 +32785,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>353.2560498238277</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33195,7 +33195,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460027</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>581.3243739860829</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33286,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,25 +33733,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420756</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779069</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,16 +34234,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34447,7 +34447,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313203</v>
+        <v>348.5948060356184</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
@@ -34798,10 +34798,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>187.5431097317917</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>418.4229873015977</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977087</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457275</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949725</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637947</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939896</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>451.0527332560633</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>436.6197581489566</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820403</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P9" t="n">
-        <v>304.6326742391977</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870589</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,19 +35971,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>68.26085851453861</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36138,10 +36138,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O21" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>213.2742757378062</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36913,16 +36913,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>439.1903400640646</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36934,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334625</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789219</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.0464832629532</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4044572.71319446</v>
+        <v>4046333.243497245</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -673,10 +673,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>65.55974623445044</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>54.01204346149692</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>98.52272637982375</v>
       </c>
       <c r="I4" t="n">
-        <v>98.52272637982375</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>46.93693955568735</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>46.93693955568628</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>68.66705505271632</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>164.2127700397092</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>286.5888679426047</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>241.1296585993233</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1229,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I9" t="n">
         <v>20.22295923705016</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>91.60520094445833</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542808</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>134.5665975534142</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1770,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>102.1557845699813</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
-        <v>201.8437228691386</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>94.30373791808189</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>45.16086499484859</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>918.0161179218646</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="C2" t="n">
-        <v>549.053600981453</v>
+        <v>549.0536009814534</v>
       </c>
       <c r="D2" t="n">
-        <v>190.7879023747025</v>
+        <v>190.7879023747029</v>
       </c>
       <c r="E2" t="n">
-        <v>190.7879023747025</v>
+        <v>190.7879023747029</v>
       </c>
       <c r="F2" t="n">
-        <v>183.842401625499</v>
+        <v>183.8424016254995</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>172.1780553901924</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182944</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218646</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218646</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4400,19 +4400,19 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>458.7060632252735</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
         <v>1092.885047004312</v>
@@ -4421,7 +4421,7 @@
         <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
         <v>2175.502629736639</v>
@@ -4482,13 +4482,13 @@
         <v>150.7646920021685</v>
       </c>
       <c r="H4" t="n">
-        <v>150.7646920021685</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>813.9105847575083</v>
+        <v>861.3216348137582</v>
       </c>
       <c r="C5" t="n">
-        <v>813.9105847575083</v>
+        <v>861.3216348137582</v>
       </c>
       <c r="D5" t="n">
-        <v>455.6448861507579</v>
+        <v>503.0559362070077</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251361</v>
+        <v>117.2676836087635</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331014</v>
+        <v>110.32218285956</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800307</v>
+        <v>98.65783662425295</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800307</v>
+        <v>98.65783662425295</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816075</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872906</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230815</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740838</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764995</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723848</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2514.928278343905</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2514.928278343905</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2261.347217608085</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>1930.284330264514</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>1577.5156749944</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X5" t="n">
-        <v>1204.04991673332</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y5" t="n">
-        <v>813.9105847575083</v>
+        <v>861.3216348137582</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180658</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495373</v>
+        <v>593.9684409159568</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508757</v>
+        <v>957.2304598751767</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105702</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281863</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>682.7064461033921</v>
+        <v>981.8280128167645</v>
       </c>
       <c r="C7" t="n">
-        <v>513.7702631754852</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D7" t="n">
-        <v>513.7702631754852</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E7" t="n">
-        <v>365.8571695930921</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F7" t="n">
-        <v>365.8571695930921</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312189</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>1279.178225384192</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.344461831649</v>
+        <v>1279.178225384192</v>
       </c>
       <c r="X7" t="n">
-        <v>864.3549109336318</v>
+        <v>1051.188674486175</v>
       </c>
       <c r="Y7" t="n">
-        <v>864.3549109336318</v>
+        <v>1051.188674486175</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854554</v>
+        <v>1201.12525314008</v>
       </c>
       <c r="C8" t="n">
-        <v>359.3403385450437</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251361</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251361</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331014</v>
+        <v>62.91113280331015</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362816</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
@@ -4825,31 +4825,31 @@
         <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723848</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
         <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400154</v>
+        <v>2184.059060190804</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056583</v>
+        <v>1940.493748474316</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786469</v>
+        <v>1587.725093204202</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525389</v>
+        <v>1587.725093204202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549577</v>
+        <v>1587.725093204202</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
         <v>238.427330237016</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>716.5983551657489</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>547.662172237842</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483065</v>
+        <v>397.5455328255063</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659134</v>
+        <v>249.6324392431131</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800307</v>
+        <v>249.6324392431131</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800307</v>
+        <v>249.6324392431131</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800307</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312191</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>898.2468199959886</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,16 +5053,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5083,7 +5083,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578602</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5518,16 +5518,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
         <v>402.7245934908939</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5892,16 +5892,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5992,7 +5992,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>197.0043242297712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>197.0043242297712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,25 +6220,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,13 +6247,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>631.7012443408905</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1551.549009249638</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.131839212678</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1034.14228831466</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>813.3497091711303</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,22 +6445,22 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,16 +6484,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9926444679666</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>335.9629114732377</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>189.0729639753273</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>189.0729639753273</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
         <v>484.8112968429803</v>
@@ -6900,10 +6900,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1098.667160263527</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>1098.667160263527</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6946,10 +6946,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7086,10 +7086,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>162.0073097921336</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>240.4465442417441</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.9556134883069376</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>168.7434581780656</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.9393975111066</v>
+        <v>138.9393975111067</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154994</v>
+        <v>20.93778120154995</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>46.45968844823039</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>186.1428431935225</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24372,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>63.36835372228751</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
-        <v>50.29392045468941</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>45.99097492814199</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>61.40075786968296</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>180.5487903941886</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>612679.2773476524</v>
+        <v>612679.2773476525</v>
       </c>
     </row>
     <row r="7">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642835</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.7698642834</v>
-      </c>
-      <c r="C2" t="n">
-        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="F2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="F2" t="n">
-        <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900061</v>
@@ -26334,28 +26334,28 @@
         <v>807146.5996900061</v>
       </c>
       <c r="I2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="J2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.599690006</v>
       </c>
       <c r="K2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245464</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731948</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
@@ -26444,7 +26444,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732036</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984467</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984467</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-520965.7864133446</v>
+        <v>-520965.7864133444</v>
       </c>
       <c r="C6" t="n">
+        <v>593785.9971625749</v>
+      </c>
+      <c r="D6" t="n">
         <v>593785.9971625751</v>
       </c>
-      <c r="D6" t="n">
-        <v>593785.9971625748</v>
-      </c>
       <c r="E6" t="n">
-        <v>190073.9365604638</v>
+        <v>190386.5778893849</v>
       </c>
       <c r="F6" t="n">
-        <v>697559.3781850104</v>
+        <v>697872.0195139316</v>
       </c>
       <c r="G6" t="n">
-        <v>697559.3781850102</v>
+        <v>697872.0195139315</v>
       </c>
       <c r="H6" t="n">
-        <v>697559.3781850102</v>
+        <v>697872.0195139315</v>
       </c>
       <c r="I6" t="n">
-        <v>697559.3781850102</v>
+        <v>697872.0195139316</v>
       </c>
       <c r="J6" t="n">
-        <v>529954.2003750276</v>
+        <v>530266.8417039489</v>
       </c>
       <c r="K6" t="n">
-        <v>697559.3781850103</v>
+        <v>697872.0195139315</v>
       </c>
       <c r="L6" t="n">
-        <v>697559.3781850103</v>
+        <v>697872.0195139315</v>
       </c>
       <c r="M6" t="n">
-        <v>564952.0844560835</v>
+        <v>565264.7257850049</v>
       </c>
       <c r="N6" t="n">
-        <v>697559.37818501</v>
+        <v>697872.0195139315</v>
       </c>
       <c r="O6" t="n">
-        <v>697559.3781850103</v>
+        <v>697872.0195139317</v>
       </c>
       <c r="P6" t="n">
-        <v>697559.3781850103</v>
+        <v>697872.0195139315</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175388</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175389</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="C4" t="n">
-        <v>640.5848321000384</v>
-      </c>
       <c r="D4" t="n">
-        <v>640.5848321000384</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241351</v>
+        <v>433.910608224135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>345.9879565385036</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>247.0065091009085</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>48.72878277530512</v>
       </c>
       <c r="I4" t="n">
-        <v>6.273868824076828</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247055</v>
+        <v>18.77297311678315</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>76.51527584310813</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>111.164925129221</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2.093830005094958</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>68.09417367807822</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>86.62259987081163</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>55.64630821067054</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983999</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-5.785973998768142e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -29517,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491898</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,34 +31357,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31393,10 +31393,10 @@
         <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675763</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335768</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,13 +31518,13 @@
         <v>3.755034742181058</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K8" t="n">
         <v>477.6545005857141</v>
@@ -31533,25 +31533,25 @@
         <v>592.5726450767378</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730002</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166592</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190643</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.501508014705</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R8" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
@@ -31609,19 +31609,19 @@
         <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177242</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040586</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N9" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31630,7 +31630,7 @@
         <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T9" t="n">
         <v>8.098166376000169</v>
@@ -31679,16 +31679,16 @@
         <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335769</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M10" t="n">
         <v>264.0341136849626</v>
@@ -31697,7 +31697,7 @@
         <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169136</v>
@@ -31712,10 +31712,10 @@
         <v>29.35413767523477</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069559</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024982</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32493,10 +32493,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32946,7 +32946,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33195,7 +33195,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460027</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34780,10 +34780,10 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>348.5948060356184</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>538.1269048795942</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637946</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434847</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.68036063785</v>
+        <v>298.6359741261571</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928737</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961228</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>418.4229873015977</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977087</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805397</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067505</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457275</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949725</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637947</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402555</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939896</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>436.6197581489566</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820403</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O9" t="n">
         <v>335.4246819961228</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870589</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
@@ -35345,7 +35345,7 @@
         <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818071</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -36141,10 +36141,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36843,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
